--- a/data/pca/factorExposure/factorExposure_2014-09-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.004445394622176452</v>
+        <v>0.01801233589163015</v>
       </c>
       <c r="C2">
-        <v>0.1122573685517427</v>
+        <v>-0.07065639704736591</v>
       </c>
       <c r="D2">
-        <v>-0.01572859518809531</v>
+        <v>0.03200325716523728</v>
       </c>
       <c r="E2">
-        <v>-0.2276795278879837</v>
+        <v>-0.0553614237381079</v>
       </c>
       <c r="F2">
-        <v>-0.02767149870739952</v>
+        <v>-0.1490700321060948</v>
       </c>
       <c r="G2">
-        <v>-0.06527427355772568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.01193101813856688</v>
+      </c>
+      <c r="H2">
+        <v>-0.06055261291985137</v>
+      </c>
+      <c r="I2">
+        <v>0.02487932680415611</v>
+      </c>
+      <c r="J2">
+        <v>0.02294091557809947</v>
+      </c>
+      <c r="K2">
+        <v>-0.1784759900745086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01823894199844305</v>
+        <v>0.01765954119196704</v>
       </c>
       <c r="C4">
-        <v>0.1697961973740071</v>
+        <v>-0.1445631487983226</v>
       </c>
       <c r="D4">
-        <v>-0.02644609985700815</v>
+        <v>0.06344267620946623</v>
       </c>
       <c r="E4">
-        <v>-0.06091283565041706</v>
+        <v>0.0277697771001362</v>
       </c>
       <c r="F4">
-        <v>0.08161125854580409</v>
+        <v>-0.06680030980975904</v>
       </c>
       <c r="G4">
-        <v>0.002200323544070598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01333123690360324</v>
+      </c>
+      <c r="H4">
+        <v>-0.08254846527127163</v>
+      </c>
+      <c r="I4">
+        <v>0.1010253972763561</v>
+      </c>
+      <c r="J4">
+        <v>0.04685244978358404</v>
+      </c>
+      <c r="K4">
+        <v>-0.1648995356964461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02749501481502147</v>
+        <v>0.03774990089834598</v>
       </c>
       <c r="C6">
-        <v>0.07715570706107255</v>
+        <v>-0.0870754622377784</v>
       </c>
       <c r="D6">
-        <v>-0.05614034716709026</v>
+        <v>0.02788319176553186</v>
       </c>
       <c r="E6">
-        <v>-0.06767833761109349</v>
+        <v>-0.04127254173984143</v>
       </c>
       <c r="F6">
-        <v>0.02528099291378214</v>
+        <v>-0.02940322579463138</v>
       </c>
       <c r="G6">
-        <v>0.01888174384494046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04069759169441486</v>
+      </c>
+      <c r="H6">
+        <v>-0.03338461595280216</v>
+      </c>
+      <c r="I6">
+        <v>-0.01613457075250039</v>
+      </c>
+      <c r="J6">
+        <v>-0.09303515536937096</v>
+      </c>
+      <c r="K6">
+        <v>-0.08071887165120582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.0002998764927688208</v>
+        <v>0.01791183651917155</v>
       </c>
       <c r="C7">
-        <v>0.06483879858472928</v>
+        <v>-0.07293805679543333</v>
       </c>
       <c r="D7">
-        <v>-0.03313917396766339</v>
+        <v>0.02877778523381259</v>
       </c>
       <c r="E7">
-        <v>-0.01796680306791681</v>
+        <v>0.01913869085878553</v>
       </c>
       <c r="F7">
-        <v>0.04031492715021</v>
+        <v>0.002496599882501805</v>
       </c>
       <c r="G7">
-        <v>0.02057056061066428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03386544207432991</v>
+      </c>
+      <c r="H7">
+        <v>-0.09504737562182744</v>
+      </c>
+      <c r="I7">
+        <v>0.03100190410470637</v>
+      </c>
+      <c r="J7">
+        <v>-0.001622763686374284</v>
+      </c>
+      <c r="K7">
+        <v>-0.03466623394832656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01346412181916304</v>
+        <v>-7.743093627929209e-05</v>
       </c>
       <c r="C8">
-        <v>0.07215606837678522</v>
+        <v>-0.06182909447333308</v>
       </c>
       <c r="D8">
-        <v>-0.0390453025426027</v>
+        <v>0.04437333932368298</v>
       </c>
       <c r="E8">
-        <v>-0.07594297034667907</v>
+        <v>-0.008299646677780034</v>
       </c>
       <c r="F8">
-        <v>0.02913709310627737</v>
+        <v>-0.06015091456767433</v>
       </c>
       <c r="G8">
-        <v>-0.0131706913849089</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01880387766555533</v>
+      </c>
+      <c r="H8">
+        <v>-0.06152021852991648</v>
+      </c>
+      <c r="I8">
+        <v>0.01984272327556886</v>
+      </c>
+      <c r="J8">
+        <v>-0.0008303663871417435</v>
+      </c>
+      <c r="K8">
+        <v>0.01121770928818125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.007303204475260698</v>
+        <v>0.01334831036063016</v>
       </c>
       <c r="C9">
-        <v>0.1222718107697311</v>
+        <v>-0.102506549882806</v>
       </c>
       <c r="D9">
-        <v>-0.04059059888597629</v>
+        <v>0.04395923466526004</v>
       </c>
       <c r="E9">
-        <v>-0.02313790479618056</v>
+        <v>0.005858671060482132</v>
       </c>
       <c r="F9">
-        <v>0.0281675009483067</v>
+        <v>-0.03198933977093182</v>
       </c>
       <c r="G9">
-        <v>0.04228945375692492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.002611708853633856</v>
+      </c>
+      <c r="H9">
+        <v>-0.08543769442221014</v>
+      </c>
+      <c r="I9">
+        <v>0.06828907467460996</v>
+      </c>
+      <c r="J9">
+        <v>0.009045318829981703</v>
+      </c>
+      <c r="K9">
+        <v>-0.07668545385285043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2731232383958277</v>
+        <v>0.2472746045002678</v>
       </c>
       <c r="C10">
-        <v>-0.08213727200335207</v>
+        <v>0.08945587719469271</v>
       </c>
       <c r="D10">
-        <v>0.01529167914243311</v>
+        <v>-0.006748590062689909</v>
       </c>
       <c r="E10">
-        <v>0.03163663622841879</v>
+        <v>-0.01051983973772187</v>
       </c>
       <c r="F10">
-        <v>-0.00290747339905073</v>
+        <v>0.0001407136076955037</v>
       </c>
       <c r="G10">
-        <v>0.02352536741164576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0244790077585099</v>
+      </c>
+      <c r="H10">
+        <v>-0.03180978000460764</v>
+      </c>
+      <c r="I10">
+        <v>0.02521372072444601</v>
+      </c>
+      <c r="J10">
+        <v>0.1821270595150614</v>
+      </c>
+      <c r="K10">
+        <v>0.09345096982879939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.004606599846606419</v>
+        <v>0.01642260329457303</v>
       </c>
       <c r="C11">
-        <v>0.06586843249433531</v>
+        <v>-0.08249282006849173</v>
       </c>
       <c r="D11">
-        <v>-0.02812122867987663</v>
+        <v>0.03805498722955865</v>
       </c>
       <c r="E11">
-        <v>0.02095292837102048</v>
+        <v>0.005178859915086024</v>
       </c>
       <c r="F11">
-        <v>0.01290207564868294</v>
+        <v>0.01427298097482529</v>
       </c>
       <c r="G11">
-        <v>0.04276923721469424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.0079424909297399</v>
+      </c>
+      <c r="H11">
+        <v>-0.02892693904462643</v>
+      </c>
+      <c r="I11">
+        <v>0.01595581054131523</v>
+      </c>
+      <c r="J11">
+        <v>-0.0242668199357777</v>
+      </c>
+      <c r="K11">
+        <v>0.01171846424619017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.0004217067475561929</v>
+        <v>0.01601193407611926</v>
       </c>
       <c r="C12">
-        <v>0.04519365920896677</v>
+        <v>-0.05572386581201752</v>
       </c>
       <c r="D12">
-        <v>-0.03397494149332781</v>
+        <v>0.02494844678767813</v>
       </c>
       <c r="E12">
-        <v>0.01120395067749404</v>
+        <v>-0.01948100569073841</v>
       </c>
       <c r="F12">
-        <v>-0.01475887923817533</v>
+        <v>0.01516975672402641</v>
       </c>
       <c r="G12">
-        <v>0.06342898101086014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.02660655288098256</v>
+      </c>
+      <c r="H12">
+        <v>-0.02460515037766656</v>
+      </c>
+      <c r="I12">
+        <v>0.01656203338701332</v>
+      </c>
+      <c r="J12">
+        <v>-0.01542781969028695</v>
+      </c>
+      <c r="K12">
+        <v>0.0009209238313195275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01067312752450882</v>
+        <v>0.005299160053118073</v>
       </c>
       <c r="C13">
-        <v>0.1171821311689</v>
+        <v>-0.120960495161287</v>
       </c>
       <c r="D13">
-        <v>-0.06583676465419175</v>
+        <v>0.04192596431330278</v>
       </c>
       <c r="E13">
-        <v>-0.05370382947349</v>
+        <v>-0.1201641462419687</v>
       </c>
       <c r="F13">
-        <v>-0.02825330719643961</v>
+        <v>-0.1000124592119321</v>
       </c>
       <c r="G13">
-        <v>0.1771731862481712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1250715898592651</v>
+      </c>
+      <c r="H13">
+        <v>-0.1430027539861697</v>
+      </c>
+      <c r="I13">
+        <v>-0.1186197728297893</v>
+      </c>
+      <c r="J13">
+        <v>0.1819183994998738</v>
+      </c>
+      <c r="K13">
+        <v>0.2231553581624025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.008138994799719442</v>
+        <v>0.02004909285916483</v>
       </c>
       <c r="C14">
-        <v>0.0691502160456134</v>
+        <v>-0.07600881264539268</v>
       </c>
       <c r="D14">
-        <v>-0.03887690472179931</v>
+        <v>0.04972299428196929</v>
       </c>
       <c r="E14">
-        <v>-0.03494470483724818</v>
+        <v>-0.04399777860703955</v>
       </c>
       <c r="F14">
-        <v>-0.009691278792978118</v>
+        <v>0.0007204334060294617</v>
       </c>
       <c r="G14">
-        <v>0.07525256315277329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.08166159521755448</v>
+      </c>
+      <c r="H14">
+        <v>-0.2017583408159669</v>
+      </c>
+      <c r="I14">
+        <v>0.01500150089966202</v>
+      </c>
+      <c r="J14">
+        <v>-0.02257600536161743</v>
+      </c>
+      <c r="K14">
+        <v>0.1145190789389803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.005747043388322292</v>
+        <v>0.003622230986882269</v>
       </c>
       <c r="C15">
-        <v>0.09922396355629749</v>
+        <v>-0.08294657791676872</v>
       </c>
       <c r="D15">
-        <v>-0.04845645151306157</v>
+        <v>0.03497941893062723</v>
       </c>
       <c r="E15">
-        <v>-0.04895201695500221</v>
+        <v>0.004014174099174856</v>
       </c>
       <c r="F15">
-        <v>0.01917914560596232</v>
+        <v>-0.0246878024052802</v>
       </c>
       <c r="G15">
-        <v>0.04379648488370648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02435679127176753</v>
+      </c>
+      <c r="H15">
+        <v>-0.09410176633470838</v>
+      </c>
+      <c r="I15">
+        <v>0.03237730188644</v>
+      </c>
+      <c r="J15">
+        <v>-0.02060987175132135</v>
+      </c>
+      <c r="K15">
+        <v>0.06908467113966432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.006893580171781241</v>
+        <v>0.01517687727601319</v>
       </c>
       <c r="C16">
-        <v>0.0553843639586535</v>
+        <v>-0.06201771795721227</v>
       </c>
       <c r="D16">
-        <v>-0.02439375308680335</v>
+        <v>0.02634132439319368</v>
       </c>
       <c r="E16">
-        <v>0.01206663428840785</v>
+        <v>0.00156262831728236</v>
       </c>
       <c r="F16">
-        <v>-0.005321863186429359</v>
+        <v>0.008547317093840141</v>
       </c>
       <c r="G16">
-        <v>0.03232306017451827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.008712414189793363</v>
+      </c>
+      <c r="H16">
+        <v>-0.02107716879950986</v>
+      </c>
+      <c r="I16">
+        <v>0.0140497012096692</v>
+      </c>
+      <c r="J16">
+        <v>-0.01819859079639392</v>
+      </c>
+      <c r="K16">
+        <v>-0.005266609249069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01033603052456394</v>
+        <v>0.01439344258769084</v>
       </c>
       <c r="C20">
-        <v>0.08730678755944439</v>
+        <v>-0.08617681869520813</v>
       </c>
       <c r="D20">
-        <v>-0.03318556893305386</v>
+        <v>0.02646986109780029</v>
       </c>
       <c r="E20">
-        <v>0.01889689171701627</v>
+        <v>0.02381752187192031</v>
       </c>
       <c r="F20">
-        <v>0.02964448506735538</v>
+        <v>0.01002447779647669</v>
       </c>
       <c r="G20">
-        <v>0.1013273086039509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.03679672932064083</v>
+      </c>
+      <c r="H20">
+        <v>-0.07520203682133683</v>
+      </c>
+      <c r="I20">
+        <v>0.01812314241503421</v>
+      </c>
+      <c r="J20">
+        <v>-0.01582507058726121</v>
+      </c>
+      <c r="K20">
+        <v>-0.01144171110161398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.01011949422317746</v>
+        <v>0.01170953887402072</v>
       </c>
       <c r="C21">
-        <v>0.09712435203337449</v>
+        <v>-0.07222824765294808</v>
       </c>
       <c r="D21">
-        <v>0.02475241433329601</v>
+        <v>0.02025136491648035</v>
       </c>
       <c r="E21">
-        <v>-0.05377826193688039</v>
+        <v>-0.09530716286620669</v>
       </c>
       <c r="F21">
-        <v>-0.03280741221101695</v>
+        <v>-0.01913312011311939</v>
       </c>
       <c r="G21">
-        <v>0.05228791048021626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02782258497993823</v>
+      </c>
+      <c r="H21">
+        <v>-0.1460536548256551</v>
+      </c>
+      <c r="I21">
+        <v>-0.02441132854672177</v>
+      </c>
+      <c r="J21">
+        <v>0.009015447775466806</v>
+      </c>
+      <c r="K21">
+        <v>0.03746394122624508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04226656463090456</v>
+        <v>0.005279971827849348</v>
       </c>
       <c r="C22">
-        <v>0.2264132401701836</v>
+        <v>-0.1780388165020297</v>
       </c>
       <c r="D22">
-        <v>0.05866153374362846</v>
+        <v>0.01453852552753357</v>
       </c>
       <c r="E22">
-        <v>-0.2815236564753892</v>
+        <v>0.08826700191626385</v>
       </c>
       <c r="F22">
-        <v>0.2473386646777599</v>
+        <v>-0.5275117019951182</v>
       </c>
       <c r="G22">
-        <v>-0.1438163660378589</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.00952917941881126</v>
+      </c>
+      <c r="H22">
+        <v>0.2999386456655725</v>
+      </c>
+      <c r="I22">
+        <v>-0.07632433602148112</v>
+      </c>
+      <c r="J22">
+        <v>-0.01533331396402357</v>
+      </c>
+      <c r="K22">
+        <v>0.1815791083783596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04366505652586745</v>
+        <v>0.01054250780928627</v>
       </c>
       <c r="C23">
-        <v>0.2290172863099285</v>
+        <v>-0.1818046684639241</v>
       </c>
       <c r="D23">
-        <v>0.06361852592618318</v>
+        <v>0.01452648403032219</v>
       </c>
       <c r="E23">
-        <v>-0.276047958935788</v>
+        <v>0.08386629941569676</v>
       </c>
       <c r="F23">
-        <v>0.2428391016493084</v>
+        <v>-0.5114428776132715</v>
       </c>
       <c r="G23">
-        <v>-0.142036624240911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.01031904403328302</v>
+      </c>
+      <c r="H23">
+        <v>0.2807570032178511</v>
+      </c>
+      <c r="I23">
+        <v>-0.06319894780609502</v>
+      </c>
+      <c r="J23">
+        <v>-0.01830168582076763</v>
+      </c>
+      <c r="K23">
+        <v>0.1705503777875114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.001420003303096623</v>
+        <v>0.01600130221101811</v>
       </c>
       <c r="C24">
-        <v>0.05166571117772679</v>
+        <v>-0.06552547637214258</v>
       </c>
       <c r="D24">
-        <v>-0.04196761322920185</v>
+        <v>0.03950423582889803</v>
       </c>
       <c r="E24">
-        <v>0.01350311473598895</v>
+        <v>0.003681701816706624</v>
       </c>
       <c r="F24">
-        <v>0.007746770253648903</v>
+        <v>0.009725913961856165</v>
       </c>
       <c r="G24">
-        <v>0.05826739871033271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02417812543725124</v>
+      </c>
+      <c r="H24">
+        <v>-0.03942202055956907</v>
+      </c>
+      <c r="I24">
+        <v>0.0180046899277839</v>
+      </c>
+      <c r="J24">
+        <v>-0.01908560596056203</v>
+      </c>
+      <c r="K24">
+        <v>0.003373114808075125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.004590804156417031</v>
+        <v>0.02023222341949766</v>
       </c>
       <c r="C25">
-        <v>0.06255473248064333</v>
+        <v>-0.06950980454666053</v>
       </c>
       <c r="D25">
-        <v>-0.01984886356434386</v>
+        <v>0.03126988937472852</v>
       </c>
       <c r="E25">
-        <v>0.01974818878226831</v>
+        <v>0.005728650716364559</v>
       </c>
       <c r="F25">
-        <v>0.006181909348258951</v>
+        <v>0.008713784701095125</v>
       </c>
       <c r="G25">
-        <v>0.05413358903854519</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.01827260239939818</v>
+      </c>
+      <c r="H25">
+        <v>-0.03311458843718344</v>
+      </c>
+      <c r="I25">
+        <v>0.02079988673934611</v>
+      </c>
+      <c r="J25">
+        <v>-0.006383313811703094</v>
+      </c>
+      <c r="K25">
+        <v>0.01492466271817745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.002999614178527291</v>
+        <v>0.02358226659425884</v>
       </c>
       <c r="C26">
-        <v>0.05323129946417652</v>
+        <v>-0.05738391350794821</v>
       </c>
       <c r="D26">
-        <v>-0.06273150572612216</v>
+        <v>0.06252500222454729</v>
       </c>
       <c r="E26">
-        <v>-0.01460279204057126</v>
+        <v>0.006071979481118699</v>
       </c>
       <c r="F26">
-        <v>-0.01936320492751073</v>
+        <v>0.01794811193826916</v>
       </c>
       <c r="G26">
-        <v>0.03570682343060151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.002437075240409906</v>
+      </c>
+      <c r="H26">
+        <v>-0.09951302829285896</v>
+      </c>
+      <c r="I26">
+        <v>0.05521455650720154</v>
+      </c>
+      <c r="J26">
+        <v>-0.03192935330190994</v>
+      </c>
+      <c r="K26">
+        <v>-0.1216926797860631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3692598823875974</v>
+        <v>0.3157452406341772</v>
       </c>
       <c r="C28">
-        <v>-0.0999328198658484</v>
+        <v>0.1062395746501111</v>
       </c>
       <c r="D28">
-        <v>0.005066192339385011</v>
+        <v>-0.03130489845893209</v>
       </c>
       <c r="E28">
-        <v>0.07031358861444094</v>
+        <v>-0.009659977372704794</v>
       </c>
       <c r="F28">
-        <v>-0.08567232706730245</v>
+        <v>-0.04393482332083434</v>
       </c>
       <c r="G28">
-        <v>-0.04938867434217232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1253419171596264</v>
+      </c>
+      <c r="H28">
+        <v>-0.05393367674719626</v>
+      </c>
+      <c r="I28">
+        <v>-0.05705705320746217</v>
+      </c>
+      <c r="J28">
+        <v>0.203617365999805</v>
+      </c>
+      <c r="K28">
+        <v>-0.02302894337364539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.008222165844314077</v>
+        <v>0.01460235198554018</v>
       </c>
       <c r="C29">
-        <v>0.07328656465645608</v>
+        <v>-0.08250624855728142</v>
       </c>
       <c r="D29">
-        <v>-0.04767790879428897</v>
+        <v>0.05346662162180908</v>
       </c>
       <c r="E29">
-        <v>-0.02903958978069572</v>
+        <v>-0.04622834257229418</v>
       </c>
       <c r="F29">
-        <v>-0.003737364538429398</v>
+        <v>-0.005670289073161346</v>
       </c>
       <c r="G29">
-        <v>0.1115695250984362</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1213421932344351</v>
+      </c>
+      <c r="H29">
+        <v>-0.285225585590146</v>
+      </c>
+      <c r="I29">
+        <v>0.02909395912362845</v>
+      </c>
+      <c r="J29">
+        <v>6.276938437131418e-05</v>
+      </c>
+      <c r="K29">
+        <v>0.1757507584327644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.0216388852186068</v>
+        <v>0.02910209991259294</v>
       </c>
       <c r="C30">
-        <v>0.1676048591448841</v>
+        <v>-0.1425313624817341</v>
       </c>
       <c r="D30">
-        <v>-0.06853268087924146</v>
+        <v>0.05578282739823626</v>
       </c>
       <c r="E30">
-        <v>-0.03110702067052598</v>
+        <v>0.01628074918557151</v>
       </c>
       <c r="F30">
-        <v>0.04933444751454728</v>
+        <v>-0.06360506047774904</v>
       </c>
       <c r="G30">
-        <v>0.003108909028943692</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.004636334725603573</v>
+      </c>
+      <c r="H30">
+        <v>-0.03834402922489963</v>
+      </c>
+      <c r="I30">
+        <v>0.03689627013246729</v>
+      </c>
+      <c r="J30">
+        <v>-0.03789706101569373</v>
+      </c>
+      <c r="K30">
+        <v>-0.08731176934823279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.001139023328085121</v>
+        <v>0.01467212090013542</v>
       </c>
       <c r="C31">
-        <v>0.05641126555175442</v>
+        <v>-0.08077042401046322</v>
       </c>
       <c r="D31">
-        <v>-0.03582504897248633</v>
+        <v>0.04107462151747556</v>
       </c>
       <c r="E31">
-        <v>0.01651820259706775</v>
+        <v>-0.002595886719400418</v>
       </c>
       <c r="F31">
-        <v>-0.0166393629529636</v>
+        <v>0.001371993887440905</v>
       </c>
       <c r="G31">
-        <v>0.01944840914705863</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02493709319799796</v>
+      </c>
+      <c r="H31">
+        <v>-0.03213063921423102</v>
+      </c>
+      <c r="I31">
+        <v>0.0205748738769686</v>
+      </c>
+      <c r="J31">
+        <v>-0.006005711138656044</v>
+      </c>
+      <c r="K31">
+        <v>0.02429551488799202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.02042639189158199</v>
+        <v>0.02208011456169112</v>
       </c>
       <c r="C32">
-        <v>0.08451435195982304</v>
+        <v>-0.05241181274023345</v>
       </c>
       <c r="D32">
-        <v>-0.001635128243928046</v>
+        <v>0.02448279134184491</v>
       </c>
       <c r="E32">
-        <v>-0.1535025261173001</v>
+        <v>-0.06008957043317837</v>
       </c>
       <c r="F32">
-        <v>0.02084743965831359</v>
+        <v>-0.0972780627689708</v>
       </c>
       <c r="G32">
-        <v>0.07879564832342548</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0656797039175568</v>
+      </c>
+      <c r="H32">
+        <v>-0.1679341549562416</v>
+      </c>
+      <c r="I32">
+        <v>-0.06781249035122867</v>
+      </c>
+      <c r="J32">
+        <v>0.2590961452222084</v>
+      </c>
+      <c r="K32">
+        <v>0.02727259020462213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01569497985791226</v>
+        <v>0.01734368890655261</v>
       </c>
       <c r="C33">
-        <v>0.08821012635124532</v>
+        <v>-0.1052266847335556</v>
       </c>
       <c r="D33">
-        <v>-0.06227595828651584</v>
+        <v>0.0509829383661272</v>
       </c>
       <c r="E33">
-        <v>-0.010783515951291</v>
+        <v>0.006830362887572529</v>
       </c>
       <c r="F33">
-        <v>-0.004119698845513034</v>
+        <v>-0.01292617270641596</v>
       </c>
       <c r="G33">
-        <v>0.03452856379076349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02273504217249999</v>
+      </c>
+      <c r="H33">
+        <v>-0.05263131191088024</v>
+      </c>
+      <c r="I33">
+        <v>0.0192951018335128</v>
+      </c>
+      <c r="J33">
+        <v>0.02174119362876363</v>
+      </c>
+      <c r="K33">
+        <v>-0.003086869487269966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.0002251321878382269</v>
+        <v>0.01565405536444999</v>
       </c>
       <c r="C34">
-        <v>0.04602205186274744</v>
+        <v>-0.04813301291019939</v>
       </c>
       <c r="D34">
-        <v>-0.01883460824771135</v>
+        <v>0.02032117208226125</v>
       </c>
       <c r="E34">
-        <v>-0.002403526782145133</v>
+        <v>-0.005970719543356486</v>
       </c>
       <c r="F34">
-        <v>-0.01330601401333514</v>
+        <v>0.01195631416988591</v>
       </c>
       <c r="G34">
-        <v>0.03740005270157474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01655875672298618</v>
+      </c>
+      <c r="H34">
+        <v>-0.006453284060193964</v>
+      </c>
+      <c r="I34">
+        <v>0.01901578577338167</v>
+      </c>
+      <c r="J34">
+        <v>-0.01346456145020401</v>
+      </c>
+      <c r="K34">
+        <v>0.004006424634082846</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.004009882326066133</v>
+        <v>0.01056617344859185</v>
       </c>
       <c r="C35">
-        <v>0.02417390728370617</v>
+        <v>-0.0436666122748136</v>
       </c>
       <c r="D35">
-        <v>-0.008516691715846965</v>
+        <v>0.02291310607386516</v>
       </c>
       <c r="E35">
-        <v>-0.006878937991206766</v>
+        <v>-0.009934730194553102</v>
       </c>
       <c r="F35">
-        <v>0.000317530928732106</v>
+        <v>-0.005886617998552808</v>
       </c>
       <c r="G35">
-        <v>0.03517823048994794</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04542716634728024</v>
+      </c>
+      <c r="H35">
+        <v>-0.1457010658966459</v>
+      </c>
+      <c r="I35">
+        <v>0.04402649463809451</v>
+      </c>
+      <c r="J35">
+        <v>0.01647084712205662</v>
+      </c>
+      <c r="K35">
+        <v>0.1531873822632036</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.0007201627291612227</v>
+        <v>0.0162035260633642</v>
       </c>
       <c r="C36">
-        <v>0.0482791248154381</v>
+        <v>-0.04858751047388856</v>
       </c>
       <c r="D36">
-        <v>-0.05342192056134398</v>
+        <v>0.04680831651018803</v>
       </c>
       <c r="E36">
-        <v>-0.003751584167144491</v>
+        <v>0.001448477230538873</v>
       </c>
       <c r="F36">
-        <v>-0.006545085880975411</v>
+        <v>-0.005506707187388298</v>
       </c>
       <c r="G36">
-        <v>0.02281862881457066</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.003928624150152823</v>
+      </c>
+      <c r="H36">
+        <v>-0.07731678714869251</v>
+      </c>
+      <c r="I36">
+        <v>0.01171543689213468</v>
+      </c>
+      <c r="J36">
+        <v>-0.01473651598903301</v>
+      </c>
+      <c r="K36">
+        <v>-0.04441726740241626</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03037806869619862</v>
+        <v>0.01150491723084334</v>
       </c>
       <c r="C38">
-        <v>0.05726815549409823</v>
+        <v>-0.06049967678001014</v>
       </c>
       <c r="D38">
-        <v>-0.04888334184047739</v>
+        <v>0.040542107642202</v>
       </c>
       <c r="E38">
-        <v>0.009933499890997255</v>
+        <v>0.0305699583180044</v>
       </c>
       <c r="F38">
-        <v>0.005959694351397846</v>
+        <v>-0.0164370968523443</v>
       </c>
       <c r="G38">
-        <v>0.01996921814123364</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.003912714615021108</v>
+      </c>
+      <c r="H38">
+        <v>-0.08346303657842974</v>
+      </c>
+      <c r="I38">
+        <v>-0.02859742383025171</v>
+      </c>
+      <c r="J38">
+        <v>0.05323076184791562</v>
+      </c>
+      <c r="K38">
+        <v>0.03362423048395634</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.002854196046260775</v>
+        <v>0.01768861888080235</v>
       </c>
       <c r="C39">
-        <v>0.127464152492569</v>
+        <v>-0.12886932695869</v>
       </c>
       <c r="D39">
-        <v>-0.05473883459267331</v>
+        <v>0.05788572834423408</v>
       </c>
       <c r="E39">
-        <v>-0.001945971221329558</v>
+        <v>-0.009349105405520785</v>
       </c>
       <c r="F39">
-        <v>0.01342914789605732</v>
+        <v>0.00280710949751468</v>
       </c>
       <c r="G39">
-        <v>0.08690437428956144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04203007435868827</v>
+      </c>
+      <c r="H39">
+        <v>-0.05585903624565269</v>
+      </c>
+      <c r="I39">
+        <v>0.01044838947881669</v>
+      </c>
+      <c r="J39">
+        <v>-0.07814126944398134</v>
+      </c>
+      <c r="K39">
+        <v>-0.03143991470524498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.004881705003613208</v>
+        <v>0.01220364144221744</v>
       </c>
       <c r="C40">
-        <v>0.02401177771041638</v>
+        <v>-0.05596657873990182</v>
       </c>
       <c r="D40">
-        <v>-0.01968789694676592</v>
+        <v>0.04163299354153623</v>
       </c>
       <c r="E40">
-        <v>-0.1283667724789269</v>
+        <v>-0.03466743026308887</v>
       </c>
       <c r="F40">
-        <v>0.07004679769820241</v>
+        <v>-0.03221349292053603</v>
       </c>
       <c r="G40">
-        <v>0.08763662693144152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1561141071285788</v>
+      </c>
+      <c r="H40">
+        <v>-0.03211988817847315</v>
+      </c>
+      <c r="I40">
+        <v>0.05386961349370686</v>
+      </c>
+      <c r="J40">
+        <v>0.02119986308344363</v>
+      </c>
+      <c r="K40">
+        <v>0.2827466950354269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01254117113016266</v>
+        <v>0.02221765201510919</v>
       </c>
       <c r="C41">
-        <v>0.02165901720298856</v>
+        <v>-0.04779390066422057</v>
       </c>
       <c r="D41">
-        <v>-0.008550518005472867</v>
+        <v>0.01611475562422213</v>
       </c>
       <c r="E41">
-        <v>0.01316110243570619</v>
+        <v>0.001923197719981244</v>
       </c>
       <c r="F41">
-        <v>-0.02683184716048707</v>
+        <v>0.02151169526881607</v>
       </c>
       <c r="G41">
-        <v>-0.03652525895535251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.007910675262336705</v>
+      </c>
+      <c r="H41">
+        <v>-0.02136941879725802</v>
+      </c>
+      <c r="I41">
+        <v>-0.004228397481535394</v>
+      </c>
+      <c r="J41">
+        <v>0.02827142608779136</v>
+      </c>
+      <c r="K41">
+        <v>0.04568219269539846</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.0009058545577504531</v>
+        <v>0.01844236282310808</v>
       </c>
       <c r="C43">
-        <v>0.02218971207423734</v>
+        <v>-0.04419233856321645</v>
       </c>
       <c r="D43">
-        <v>-0.0157942489355889</v>
+        <v>0.02839967835992277</v>
       </c>
       <c r="E43">
-        <v>0.005180043399845697</v>
+        <v>0.01146419963055828</v>
       </c>
       <c r="F43">
-        <v>0.006512902116034313</v>
+        <v>0.01050942742164363</v>
       </c>
       <c r="G43">
-        <v>-0.0006237106529628606</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-5.665821203517903e-05</v>
+      </c>
+      <c r="H43">
+        <v>-0.04017496509256236</v>
+      </c>
+      <c r="I43">
+        <v>-0.002774651296634169</v>
+      </c>
+      <c r="J43">
+        <v>-0.0006504759780016813</v>
+      </c>
+      <c r="K43">
+        <v>0.03577810152570761</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02026463353846854</v>
+        <v>0.01508443050297206</v>
       </c>
       <c r="C44">
-        <v>0.09567049377820326</v>
+        <v>-0.09808838132043933</v>
       </c>
       <c r="D44">
-        <v>-0.03608852683376072</v>
+        <v>0.05761874359354231</v>
       </c>
       <c r="E44">
-        <v>-0.0371216017469707</v>
+        <v>0.02878765979499518</v>
       </c>
       <c r="F44">
-        <v>0.04588802797638154</v>
+        <v>-0.06120701399497146</v>
       </c>
       <c r="G44">
-        <v>0.05253748808372553</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04539415030344063</v>
+      </c>
+      <c r="H44">
+        <v>-0.05646563926578524</v>
+      </c>
+      <c r="I44">
+        <v>0.005854962458354447</v>
+      </c>
+      <c r="J44">
+        <v>-0.04534863456471149</v>
+      </c>
+      <c r="K44">
+        <v>-0.08561845936815521</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.004601204784605778</v>
+        <v>0.004149108820831472</v>
       </c>
       <c r="C46">
-        <v>0.06450216434958085</v>
+        <v>-0.06379410705013309</v>
       </c>
       <c r="D46">
-        <v>-0.04598276904815474</v>
+        <v>0.0299925341639409</v>
       </c>
       <c r="E46">
-        <v>-0.0245434441166545</v>
+        <v>-0.006837438122148973</v>
       </c>
       <c r="F46">
-        <v>0.007898595191021216</v>
+        <v>0.008066138971568637</v>
       </c>
       <c r="G46">
-        <v>0.06765147105464701</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04004495536064118</v>
+      </c>
+      <c r="H46">
+        <v>-0.1017509281432924</v>
+      </c>
+      <c r="I46">
+        <v>-0.01188259185979269</v>
+      </c>
+      <c r="J46">
+        <v>-0.006313271299081218</v>
+      </c>
+      <c r="K46">
+        <v>0.07414538615877654</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.004395389123152797</v>
+        <v>0.02218379628623496</v>
       </c>
       <c r="C47">
-        <v>0.07064325467504483</v>
+        <v>-0.07896057886698586</v>
       </c>
       <c r="D47">
-        <v>-0.04000943664201714</v>
+        <v>0.0410802669288881</v>
       </c>
       <c r="E47">
-        <v>0.019947024551686</v>
+        <v>-0.005772401745432175</v>
       </c>
       <c r="F47">
-        <v>-0.04247573649817717</v>
+        <v>0.01770167239828504</v>
       </c>
       <c r="G47">
-        <v>0.04506262326134351</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.007266161850426702</v>
+      </c>
+      <c r="H47">
+        <v>-0.07266927461261341</v>
+      </c>
+      <c r="I47">
+        <v>-0.005068128620436206</v>
+      </c>
+      <c r="J47">
+        <v>0.02483586294260995</v>
+      </c>
+      <c r="K47">
+        <v>0.02778016599513285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.004672354002393429</v>
+        <v>0.02161526972355907</v>
       </c>
       <c r="C48">
-        <v>0.05330163784958871</v>
+        <v>-0.05052300434884073</v>
       </c>
       <c r="D48">
-        <v>-0.05684754065118892</v>
+        <v>0.05371808476291967</v>
       </c>
       <c r="E48">
-        <v>-0.002198802551291652</v>
+        <v>0.006407172333798899</v>
       </c>
       <c r="F48">
-        <v>-0.001918336735852784</v>
+        <v>0.002930890277744167</v>
       </c>
       <c r="G48">
-        <v>0.0331935497155066</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.004449993054450301</v>
+      </c>
+      <c r="H48">
+        <v>-0.09684781136499054</v>
+      </c>
+      <c r="I48">
+        <v>0.03984686333041054</v>
+      </c>
+      <c r="J48">
+        <v>-0.02380134149339721</v>
+      </c>
+      <c r="K48">
+        <v>-0.1000356546514544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.00885070672132383</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02753166088274307</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.007827322770074098</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.007199975239449266</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.0386280683778198</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03285811343566845</v>
+      </c>
+      <c r="H49">
+        <v>0.0234710808890201</v>
+      </c>
+      <c r="I49">
+        <v>0.05134892478618948</v>
+      </c>
+      <c r="J49">
+        <v>-0.03634529140435272</v>
+      </c>
+      <c r="K49">
+        <v>-0.02178175108411693</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.0004324019614063418</v>
+        <v>0.01488201732485687</v>
       </c>
       <c r="C50">
-        <v>0.06832866141533785</v>
+        <v>-0.07937061347203601</v>
       </c>
       <c r="D50">
-        <v>-0.03223979012224656</v>
+        <v>0.02972867988065696</v>
       </c>
       <c r="E50">
-        <v>0.001117402086714941</v>
+        <v>0.007649175934512762</v>
       </c>
       <c r="F50">
-        <v>0.003628676965093432</v>
+        <v>-0.006771884933488487</v>
       </c>
       <c r="G50">
-        <v>0.02553402891334084</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.008688103244042277</v>
+      </c>
+      <c r="H50">
+        <v>-0.05406264619532447</v>
+      </c>
+      <c r="I50">
+        <v>0.009625585598442732</v>
+      </c>
+      <c r="J50">
+        <v>0.04721730219916499</v>
+      </c>
+      <c r="K50">
+        <v>0.01370210903237028</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.0002635674741040238</v>
+        <v>-0.006460511302554638</v>
       </c>
       <c r="C51">
-        <v>0.07733658972534625</v>
+        <v>-0.03644168782474306</v>
       </c>
       <c r="D51">
-        <v>-0.01846819438728744</v>
+        <v>0.01909293103868145</v>
       </c>
       <c r="E51">
-        <v>-0.05046007339651005</v>
+        <v>-0.006541284290749729</v>
       </c>
       <c r="F51">
-        <v>0.04404253485815625</v>
+        <v>-0.0296054299790915</v>
       </c>
       <c r="G51">
-        <v>0.02745580918196262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0287241059330323</v>
+      </c>
+      <c r="H51">
+        <v>-0.1031437362532855</v>
+      </c>
+      <c r="I51">
+        <v>0.03525177377424794</v>
+      </c>
+      <c r="J51">
+        <v>-0.002964611586439501</v>
+      </c>
+      <c r="K51">
+        <v>-0.1062302454933352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03695871324374904</v>
+        <v>0.05757526357912106</v>
       </c>
       <c r="C53">
-        <v>0.1266114647863456</v>
+        <v>-0.1314105704939544</v>
       </c>
       <c r="D53">
-        <v>-0.07797739328792748</v>
+        <v>0.05848591578247881</v>
       </c>
       <c r="E53">
-        <v>0.1240858043772225</v>
+        <v>-0.01521777059451558</v>
       </c>
       <c r="F53">
-        <v>-0.07689052038304096</v>
+        <v>0.07274635458222957</v>
       </c>
       <c r="G53">
-        <v>-0.03993945201800766</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08432834048568796</v>
+      </c>
+      <c r="H53">
+        <v>0.03133514280294016</v>
+      </c>
+      <c r="I53">
+        <v>0.00152311851203075</v>
+      </c>
+      <c r="J53">
+        <v>0.03406731852231558</v>
+      </c>
+      <c r="K53">
+        <v>0.01009390852652437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.004699722747610282</v>
+        <v>0.018332829612244</v>
       </c>
       <c r="C54">
-        <v>0.0642839060486277</v>
+        <v>-0.07455837800153536</v>
       </c>
       <c r="D54">
-        <v>-0.006440586191427674</v>
+        <v>0.01204757767505532</v>
       </c>
       <c r="E54">
-        <v>0.02615509460081404</v>
+        <v>-0.005481785907799666</v>
       </c>
       <c r="F54">
-        <v>0.007857360528838115</v>
+        <v>0.02111853764626852</v>
       </c>
       <c r="G54">
-        <v>0.02014887951159058</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.01888135550120345</v>
+      </c>
+      <c r="H54">
+        <v>-0.04609684868433041</v>
+      </c>
+      <c r="I54">
+        <v>0.02901363866186206</v>
+      </c>
+      <c r="J54">
+        <v>-0.02068635395471614</v>
+      </c>
+      <c r="K54">
+        <v>-0.001932923594060204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01900963822919528</v>
+        <v>0.03128025918415975</v>
       </c>
       <c r="C55">
-        <v>0.08051194034002997</v>
+        <v>-0.08401756508050033</v>
       </c>
       <c r="D55">
-        <v>-0.06906030875336873</v>
+        <v>0.0556082819651328</v>
       </c>
       <c r="E55">
-        <v>0.0556709381521222</v>
+        <v>-0.006614780252667939</v>
       </c>
       <c r="F55">
-        <v>-0.05054724336536458</v>
+        <v>0.05295131922331556</v>
       </c>
       <c r="G55">
-        <v>0.001050040885786177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03993752655489433</v>
+      </c>
+      <c r="H55">
+        <v>0.01981689905233557</v>
+      </c>
+      <c r="I55">
+        <v>0.01205093404805828</v>
+      </c>
+      <c r="J55">
+        <v>-0.01065959847948969</v>
+      </c>
+      <c r="K55">
+        <v>0.003428314617205255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.02144576373190627</v>
+        <v>0.04465090773895166</v>
       </c>
       <c r="C56">
-        <v>0.1572652817509741</v>
+        <v>-0.150224609207578</v>
       </c>
       <c r="D56">
-        <v>-0.07683295227340856</v>
+        <v>0.08294774551495569</v>
       </c>
       <c r="E56">
-        <v>0.1084983522508023</v>
+        <v>-0.04403387111923847</v>
       </c>
       <c r="F56">
-        <v>-0.1083085537728061</v>
+        <v>0.09520438429498096</v>
       </c>
       <c r="G56">
-        <v>-0.08885818078627805</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1637129127998408</v>
+      </c>
+      <c r="H56">
+        <v>0.04670907437698919</v>
+      </c>
+      <c r="I56">
+        <v>0.02274850501385529</v>
+      </c>
+      <c r="J56">
+        <v>0.01500714687017925</v>
+      </c>
+      <c r="K56">
+        <v>-0.01692560975374193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03052465058291176</v>
+        <v>0.02103741936062141</v>
       </c>
       <c r="C58">
-        <v>0.2993399225044313</v>
+        <v>-0.1836105006967501</v>
       </c>
       <c r="D58">
-        <v>0.01505032387469362</v>
+        <v>0.03901556983393558</v>
       </c>
       <c r="E58">
-        <v>-0.1709215220299637</v>
+        <v>0.04065850091491178</v>
       </c>
       <c r="F58">
-        <v>0.2860708208871292</v>
+        <v>-0.3169113756255118</v>
       </c>
       <c r="G58">
-        <v>-0.1585073255765839</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.08191685179217932</v>
+      </c>
+      <c r="H58">
+        <v>-0.06462498884856953</v>
+      </c>
+      <c r="I58">
+        <v>-0.02076671822448744</v>
+      </c>
+      <c r="J58">
+        <v>0.04664384293859959</v>
+      </c>
+      <c r="K58">
+        <v>-0.3624028160102914</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2801647448697991</v>
+        <v>0.2893985027387363</v>
       </c>
       <c r="C59">
-        <v>-0.006666140678111741</v>
+        <v>0.044414302367329</v>
       </c>
       <c r="D59">
-        <v>0.01239555985633165</v>
+        <v>-0.004754683345996736</v>
       </c>
       <c r="E59">
-        <v>-0.060176361975687</v>
+        <v>-0.01914566082235393</v>
       </c>
       <c r="F59">
-        <v>-0.04322643652802816</v>
+        <v>-0.0452756503286274</v>
       </c>
       <c r="G59">
-        <v>0.004222101118165511</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.001860180763392554</v>
+      </c>
+      <c r="H59">
+        <v>0.01997525888692096</v>
+      </c>
+      <c r="I59">
+        <v>-0.02117055986179469</v>
+      </c>
+      <c r="J59">
+        <v>0.02484879231623029</v>
+      </c>
+      <c r="K59">
+        <v>0.02788659712278142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1064308851372782</v>
+        <v>0.1446214538967793</v>
       </c>
       <c r="C60">
-        <v>0.1377481216951393</v>
+        <v>-0.1509878204598315</v>
       </c>
       <c r="D60">
-        <v>-0.07981740136948495</v>
+        <v>0.04822988611719155</v>
       </c>
       <c r="E60">
-        <v>0.04825090486766235</v>
+        <v>-0.03844809128029392</v>
       </c>
       <c r="F60">
-        <v>-0.1103916884977982</v>
+        <v>0.1182318817665527</v>
       </c>
       <c r="G60">
-        <v>0.2947044555065595</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2548498554883171</v>
+      </c>
+      <c r="H60">
+        <v>0.2335037308086775</v>
+      </c>
+      <c r="I60">
+        <v>-0.02987818216767024</v>
+      </c>
+      <c r="J60">
+        <v>-0.02867259248899994</v>
+      </c>
+      <c r="K60">
+        <v>-0.04410078630542514</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.002866529547625873</v>
+        <v>0.02070517169481636</v>
       </c>
       <c r="C61">
-        <v>0.07919836077313656</v>
+        <v>-0.09680149483149443</v>
       </c>
       <c r="D61">
-        <v>-0.06239397076595361</v>
+        <v>0.05441478330589745</v>
       </c>
       <c r="E61">
-        <v>0.02802970577306789</v>
+        <v>-0.009552212471875468</v>
       </c>
       <c r="F61">
-        <v>-0.01804735569093298</v>
+        <v>0.03077194262934706</v>
       </c>
       <c r="G61">
-        <v>0.08690315728236693</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02702611188586415</v>
+      </c>
+      <c r="H61">
+        <v>-0.05825613983651597</v>
+      </c>
+      <c r="I61">
+        <v>0.03236229157267826</v>
+      </c>
+      <c r="J61">
+        <v>-0.02439813558203725</v>
+      </c>
+      <c r="K61">
+        <v>0.01592701767763581</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002594942216259596</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01301671311519524</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003159015418699869</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.008478272373801072</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01448365248194378</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.01773132209946951</v>
+      </c>
+      <c r="H62">
+        <v>-0.001168647206316538</v>
+      </c>
+      <c r="I62">
+        <v>0.05520590809780344</v>
+      </c>
+      <c r="J62">
+        <v>0.02307631841688202</v>
+      </c>
+      <c r="K62">
+        <v>0.005880173141760874</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.002841463691717612</v>
+        <v>0.02654432053293617</v>
       </c>
       <c r="C63">
-        <v>0.05874862512249092</v>
+        <v>-0.06689728746850918</v>
       </c>
       <c r="D63">
-        <v>-0.04145487025569964</v>
+        <v>0.05942859319304301</v>
       </c>
       <c r="E63">
-        <v>0.02952011434007801</v>
+        <v>-0.005638208997949507</v>
       </c>
       <c r="F63">
-        <v>0.002948164096053735</v>
+        <v>0.01737383972314159</v>
       </c>
       <c r="G63">
-        <v>0.02700664633160897</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.001325696585588299</v>
+      </c>
+      <c r="H63">
+        <v>-0.05642519820999137</v>
+      </c>
+      <c r="I63">
+        <v>0.03747410650995598</v>
+      </c>
+      <c r="J63">
+        <v>-0.01052754673663576</v>
+      </c>
+      <c r="K63">
+        <v>0.009020617544861352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.002139840039572136</v>
+        <v>0.01407994312009736</v>
       </c>
       <c r="C64">
-        <v>0.07520874247528715</v>
+        <v>-0.09129614960108771</v>
       </c>
       <c r="D64">
-        <v>-0.0721013246856521</v>
+        <v>0.03312651112363638</v>
       </c>
       <c r="E64">
-        <v>-0.005403557902028166</v>
+        <v>0.02492964617329455</v>
       </c>
       <c r="F64">
-        <v>0.01968730105946726</v>
+        <v>-0.02710995153566473</v>
       </c>
       <c r="G64">
-        <v>0.06256858514853707</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.07094037514638943</v>
+      </c>
+      <c r="H64">
+        <v>-0.05059859062258583</v>
+      </c>
+      <c r="I64">
+        <v>0.03371548850654236</v>
+      </c>
+      <c r="J64">
+        <v>-0.0418355788157074</v>
+      </c>
+      <c r="K64">
+        <v>0.01510823773102473</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.009367984980998282</v>
+        <v>0.03007643614997001</v>
       </c>
       <c r="C65">
-        <v>0.07872904668099066</v>
+        <v>-0.09588560742144855</v>
       </c>
       <c r="D65">
-        <v>-0.0398406471304186</v>
+        <v>0.02081479539815851</v>
       </c>
       <c r="E65">
-        <v>-0.03433205364181544</v>
+        <v>0.01526354087147406</v>
       </c>
       <c r="F65">
-        <v>0.02245958218351039</v>
+        <v>-0.001648377726206976</v>
       </c>
       <c r="G65">
-        <v>0.03281510863405437</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.09092080788593379</v>
+      </c>
+      <c r="H65">
+        <v>-0.0073428347613309</v>
+      </c>
+      <c r="I65">
+        <v>-0.02550728382027804</v>
+      </c>
+      <c r="J65">
+        <v>-0.09687551431434491</v>
+      </c>
+      <c r="K65">
+        <v>-0.09264015975690403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.00299745510153792</v>
+        <v>0.01445361768000525</v>
       </c>
       <c r="C66">
-        <v>0.1673189124280522</v>
+        <v>-0.1662603370606401</v>
       </c>
       <c r="D66">
-        <v>-0.04346170573406576</v>
+        <v>0.04854599111048574</v>
       </c>
       <c r="E66">
-        <v>-0.03939684213569952</v>
+        <v>-0.01621322012398642</v>
       </c>
       <c r="F66">
-        <v>-0.0004267860057278332</v>
+        <v>-0.008416734623394994</v>
       </c>
       <c r="G66">
-        <v>0.1078280668245801</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.02636083370006404</v>
+      </c>
+      <c r="H66">
+        <v>-0.0654140846259077</v>
+      </c>
+      <c r="I66">
+        <v>0.0251439888049256</v>
+      </c>
+      <c r="J66">
+        <v>-0.05107598294381177</v>
+      </c>
+      <c r="K66">
+        <v>-0.02148776322123373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02728533836897995</v>
+        <v>0.01993577647540296</v>
       </c>
       <c r="C67">
-        <v>0.03176821486158753</v>
+        <v>-0.05032883759870974</v>
       </c>
       <c r="D67">
-        <v>-0.06412303905261407</v>
+        <v>0.04286200810712312</v>
       </c>
       <c r="E67">
-        <v>0.04072546055888082</v>
+        <v>0.02633066556286021</v>
       </c>
       <c r="F67">
-        <v>-0.005852231062550676</v>
+        <v>0.01959971963514267</v>
       </c>
       <c r="G67">
-        <v>0.02784464837395988</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02059211369451574</v>
+      </c>
+      <c r="H67">
+        <v>-0.05877149825073654</v>
+      </c>
+      <c r="I67">
+        <v>-0.04069022150370109</v>
+      </c>
+      <c r="J67">
+        <v>0.04263370605332766</v>
+      </c>
+      <c r="K67">
+        <v>0.04602304895023055</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2888150658333921</v>
+        <v>0.2958011267226242</v>
       </c>
       <c r="C68">
-        <v>-0.03667555920997409</v>
+        <v>0.06781565585121742</v>
       </c>
       <c r="D68">
-        <v>-0.0009095000120250132</v>
+        <v>-0.02373080290255617</v>
       </c>
       <c r="E68">
-        <v>-0.03242138079010598</v>
+        <v>-0.008727940031754755</v>
       </c>
       <c r="F68">
-        <v>-0.000490951981800949</v>
+        <v>-0.03698536624396759</v>
       </c>
       <c r="G68">
-        <v>-0.00614475081050346</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02168988050283207</v>
+      </c>
+      <c r="H68">
+        <v>-0.02010230502378958</v>
+      </c>
+      <c r="I68">
+        <v>0.0540129049928744</v>
+      </c>
+      <c r="J68">
+        <v>0.05319429803381807</v>
+      </c>
+      <c r="K68">
+        <v>-0.002376471019983704</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.0100130896457823</v>
+        <v>0.007911050677875489</v>
       </c>
       <c r="C69">
-        <v>0.04355810963335299</v>
+        <v>-0.04826498987983683</v>
       </c>
       <c r="D69">
-        <v>-0.05990084383117707</v>
+        <v>0.02249309417897007</v>
       </c>
       <c r="E69">
-        <v>0.02286499125360962</v>
+        <v>-0.002582872332669119</v>
       </c>
       <c r="F69">
-        <v>-0.006235945719379179</v>
+        <v>0.01393359094899493</v>
       </c>
       <c r="G69">
-        <v>0.01743536387664554</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.0249247262420936</v>
+      </c>
+      <c r="H69">
+        <v>-0.03801729731646331</v>
+      </c>
+      <c r="I69">
+        <v>0.005992817907619889</v>
+      </c>
+      <c r="J69">
+        <v>0.026844428292628</v>
+      </c>
+      <c r="K69">
+        <v>0.002177478400130212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2804190093456473</v>
+        <v>0.2773931596588275</v>
       </c>
       <c r="C71">
-        <v>-0.04799407540534823</v>
+        <v>0.0729321908867341</v>
       </c>
       <c r="D71">
-        <v>0.006097762733236326</v>
+        <v>-0.02253779320431018</v>
       </c>
       <c r="E71">
-        <v>-0.01924694425786292</v>
+        <v>0.01382789385216476</v>
       </c>
       <c r="F71">
-        <v>0.01783813726419065</v>
+        <v>-0.0610111427290091</v>
       </c>
       <c r="G71">
-        <v>0.003254634273701503</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02463929124681023</v>
+      </c>
+      <c r="H71">
+        <v>-0.05018582487168041</v>
+      </c>
+      <c r="I71">
+        <v>0.005615268905504152</v>
+      </c>
+      <c r="J71">
+        <v>0.1234793687521858</v>
+      </c>
+      <c r="K71">
+        <v>-0.03482969558729591</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.02634770409035946</v>
+        <v>0.05451862254537641</v>
       </c>
       <c r="C72">
-        <v>0.148664740058712</v>
+        <v>-0.1425021918666752</v>
       </c>
       <c r="D72">
-        <v>-0.07277074174838251</v>
+        <v>0.05204948052963433</v>
       </c>
       <c r="E72">
-        <v>0.007724573075535924</v>
+        <v>-0.01797752482107177</v>
       </c>
       <c r="F72">
-        <v>0.07062666165555935</v>
+        <v>0.04376977229944124</v>
       </c>
       <c r="G72">
-        <v>0.1115804425759445</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.01385320365583261</v>
+      </c>
+      <c r="H72">
+        <v>-0.0237310649655588</v>
+      </c>
+      <c r="I72">
+        <v>0.04869235376877534</v>
+      </c>
+      <c r="J72">
+        <v>-0.1192565439698174</v>
+      </c>
+      <c r="K72">
+        <v>-0.05690834703725676</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.06958493691113285</v>
+        <v>0.1500963758559628</v>
       </c>
       <c r="C73">
-        <v>0.1058734158787593</v>
+        <v>-0.1955445699445384</v>
       </c>
       <c r="D73">
-        <v>-0.1111609886382416</v>
+        <v>0.08747124888207779</v>
       </c>
       <c r="E73">
-        <v>0.1503452454435866</v>
+        <v>-0.01693402614418961</v>
       </c>
       <c r="F73">
-        <v>-0.1311456886507753</v>
+        <v>0.2464332664441025</v>
       </c>
       <c r="G73">
-        <v>0.3985214401835873</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3795944381897118</v>
+      </c>
+      <c r="H73">
+        <v>0.2913837513314258</v>
+      </c>
+      <c r="I73">
+        <v>-0.09963305630869874</v>
+      </c>
+      <c r="J73">
+        <v>0.07457286894156413</v>
+      </c>
+      <c r="K73">
+        <v>-0.07767324948104067</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.0102095000878833</v>
+        <v>0.03855768461944267</v>
       </c>
       <c r="C74">
-        <v>0.08447869180831676</v>
+        <v>-0.1000380695876593</v>
       </c>
       <c r="D74">
-        <v>-0.07912258522421764</v>
+        <v>0.0476660729319015</v>
       </c>
       <c r="E74">
-        <v>0.07335309893459352</v>
+        <v>0.01043055063614749</v>
       </c>
       <c r="F74">
-        <v>-0.05818009144286215</v>
+        <v>0.03824249657610265</v>
       </c>
       <c r="G74">
-        <v>-0.01999973380066736</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.04430328185111417</v>
+      </c>
+      <c r="H74">
+        <v>0.008469240596180799</v>
+      </c>
+      <c r="I74">
+        <v>0.0381557052218825</v>
+      </c>
+      <c r="J74">
+        <v>0.007882997416684068</v>
+      </c>
+      <c r="K74">
+        <v>-0.03564013846480824</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.05094822892119488</v>
+        <v>0.0635644763087628</v>
       </c>
       <c r="C75">
-        <v>0.1397216559452789</v>
+        <v>-0.166644648344033</v>
       </c>
       <c r="D75">
-        <v>-0.1021305108867827</v>
+        <v>0.08685259557089478</v>
       </c>
       <c r="E75">
-        <v>0.1716501928978304</v>
+        <v>0.04017223066585483</v>
       </c>
       <c r="F75">
-        <v>-0.09317106641113922</v>
+        <v>0.1158860686489965</v>
       </c>
       <c r="G75">
-        <v>-0.1706810313469091</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2308750542887006</v>
+      </c>
+      <c r="H75">
+        <v>0.03886556787383767</v>
+      </c>
+      <c r="I75">
+        <v>0.008332440796750176</v>
+      </c>
+      <c r="J75">
+        <v>0.1215153065669265</v>
+      </c>
+      <c r="K75">
+        <v>0.1004585542088958</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01612843756502838</v>
+        <v>0.04131166932523742</v>
       </c>
       <c r="C76">
-        <v>0.1025786320299799</v>
+        <v>-0.121666477801184</v>
       </c>
       <c r="D76">
-        <v>-0.074457622787182</v>
+        <v>0.07463288058744615</v>
       </c>
       <c r="E76">
-        <v>0.07992733713309097</v>
+        <v>-0.01081648340943053</v>
       </c>
       <c r="F76">
-        <v>-0.08030792241327483</v>
+        <v>0.08777956443196612</v>
       </c>
       <c r="G76">
-        <v>-0.03080632443093951</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.08050162423754885</v>
+      </c>
+      <c r="H76">
+        <v>0.02102410990014654</v>
+      </c>
+      <c r="I76">
+        <v>0.04901923419285452</v>
+      </c>
+      <c r="J76">
+        <v>-0.01494238799029007</v>
+      </c>
+      <c r="K76">
+        <v>0.02838531686027054</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.1148132117761885</v>
+        <v>0.05209350007609104</v>
       </c>
       <c r="C77">
-        <v>0.3741114136515247</v>
+        <v>-0.400703448479698</v>
       </c>
       <c r="D77">
-        <v>0.8347797727275453</v>
+        <v>-0.8989912233915921</v>
       </c>
       <c r="E77">
-        <v>0.3002658770820565</v>
+        <v>0.02739033349035051</v>
       </c>
       <c r="F77">
-        <v>-0.06400576375894247</v>
+        <v>0.09320189365816733</v>
       </c>
       <c r="G77">
-        <v>0.0508249978560241</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03392590104655885</v>
+      </c>
+      <c r="H77">
+        <v>-0.04419242564733903</v>
+      </c>
+      <c r="I77">
+        <v>0.04670249967267304</v>
+      </c>
+      <c r="J77">
+        <v>0.01340032114632315</v>
+      </c>
+      <c r="K77">
+        <v>0.004456950086603029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.01971640286225356</v>
+        <v>0.03426347538782318</v>
       </c>
       <c r="C78">
-        <v>0.1363784004729316</v>
+        <v>-0.1151579731692554</v>
       </c>
       <c r="D78">
-        <v>-0.1291528511756199</v>
+        <v>0.09324509986567275</v>
       </c>
       <c r="E78">
-        <v>-0.07875871793113942</v>
+        <v>-0.04008907204137412</v>
       </c>
       <c r="F78">
-        <v>-0.08433082726814149</v>
+        <v>-0.003157209986252805</v>
       </c>
       <c r="G78">
-        <v>-0.04171809334347291</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1122554095403404</v>
+      </c>
+      <c r="H78">
+        <v>-0.07162413186271932</v>
+      </c>
+      <c r="I78">
+        <v>-0.03802963757448542</v>
+      </c>
+      <c r="J78">
+        <v>-0.07238625275640112</v>
+      </c>
+      <c r="K78">
+        <v>-0.4349448106825438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02713853492603364</v>
+        <v>0.05461651527461024</v>
       </c>
       <c r="C79">
-        <v>0.1703568238420332</v>
+        <v>-0.1433845320501772</v>
       </c>
       <c r="D79">
-        <v>-0.126982332013253</v>
+        <v>0.07190478063882504</v>
       </c>
       <c r="E79">
-        <v>0.1071599070689395</v>
+        <v>-0.0145566537499774</v>
       </c>
       <c r="F79">
-        <v>-0.1374324423039942</v>
+        <v>0.06731757987004075</v>
       </c>
       <c r="G79">
-        <v>-0.2092794609580666</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.240787134427693</v>
+      </c>
+      <c r="H79">
+        <v>0.003779808956210493</v>
+      </c>
+      <c r="I79">
+        <v>0.02203313804736609</v>
+      </c>
+      <c r="J79">
+        <v>0.08027109246544027</v>
+      </c>
+      <c r="K79">
+        <v>-0.04569852983402999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.0134792917771061</v>
+        <v>0.02042807850991651</v>
       </c>
       <c r="C80">
-        <v>0.04088610212894873</v>
+        <v>-0.04781287378591944</v>
       </c>
       <c r="D80">
-        <v>-0.04928919047187599</v>
+        <v>0.03770016077683608</v>
       </c>
       <c r="E80">
-        <v>-0.01303261066470517</v>
+        <v>-0.04520417030543705</v>
       </c>
       <c r="F80">
-        <v>-0.03320789687188827</v>
+        <v>-0.02732033977506894</v>
       </c>
       <c r="G80">
-        <v>-0.007293612203623844</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.06833913562655057</v>
+      </c>
+      <c r="H80">
+        <v>0.02527916710650089</v>
+      </c>
+      <c r="I80">
+        <v>-0.03864599616602238</v>
+      </c>
+      <c r="J80">
+        <v>0.03143375694509947</v>
+      </c>
+      <c r="K80">
+        <v>0.06434694496852209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.008509721476408801</v>
+        <v>0.01723532702714917</v>
       </c>
       <c r="C81">
-        <v>0.06876711826051861</v>
+        <v>-0.09941500420907125</v>
       </c>
       <c r="D81">
-        <v>-0.08335826396903372</v>
+        <v>0.05683352001006487</v>
       </c>
       <c r="E81">
-        <v>0.08639309021243509</v>
+        <v>-0.01210264010155546</v>
       </c>
       <c r="F81">
-        <v>-0.08416140729283945</v>
+        <v>0.04935830556671265</v>
       </c>
       <c r="G81">
-        <v>-0.05749370333337383</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.110751150884971</v>
+      </c>
+      <c r="H81">
+        <v>-0.03740331111503564</v>
+      </c>
+      <c r="I81">
+        <v>0.02537084516683897</v>
+      </c>
+      <c r="J81">
+        <v>0.05627840127598444</v>
+      </c>
+      <c r="K81">
+        <v>0.0216294186837071</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.02136703099031988</v>
+        <v>0.0442063802947508</v>
       </c>
       <c r="C82">
-        <v>0.0757633766866867</v>
+        <v>-0.1009740304217563</v>
       </c>
       <c r="D82">
-        <v>-0.08211344466576184</v>
+        <v>0.06698569674708431</v>
       </c>
       <c r="E82">
-        <v>0.09951466907964689</v>
+        <v>-0.01740224543767295</v>
       </c>
       <c r="F82">
-        <v>-0.07384713097957674</v>
+        <v>0.07442529724292356</v>
       </c>
       <c r="G82">
-        <v>-0.02262921017461396</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.09038466728855611</v>
+      </c>
+      <c r="H82">
+        <v>-0.001151529106605935</v>
+      </c>
+      <c r="I82">
+        <v>0.01659990325285333</v>
+      </c>
+      <c r="J82">
+        <v>0.01046190959128887</v>
+      </c>
+      <c r="K82">
+        <v>0.003570515977687684</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.001572408304875786</v>
+        <v>-0.002069031578543897</v>
       </c>
       <c r="C83">
-        <v>0.02932913467987432</v>
+        <v>0.02253269218409113</v>
       </c>
       <c r="D83">
-        <v>0.1635489625681616</v>
+        <v>-0.05978947008307887</v>
       </c>
       <c r="E83">
-        <v>-0.5843013801194482</v>
+        <v>-0.9561022887427992</v>
       </c>
       <c r="F83">
-        <v>-0.717878679053234</v>
+        <v>-0.1095674637467073</v>
       </c>
       <c r="G83">
-        <v>-0.04158135371291413</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03891892863794236</v>
+      </c>
+      <c r="H83">
+        <v>0.07277672848645519</v>
+      </c>
+      <c r="I83">
+        <v>-0.01740372246496247</v>
+      </c>
+      <c r="J83">
+        <v>-0.07582855737826569</v>
+      </c>
+      <c r="K83">
+        <v>-0.02387953465342671</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.002972196309029083</v>
+        <v>-0.001079972440193902</v>
       </c>
       <c r="C84">
-        <v>0.07345502183274458</v>
+        <v>-0.04577648529572991</v>
       </c>
       <c r="D84">
-        <v>-0.04360371609018784</v>
+        <v>0.06509358447829842</v>
       </c>
       <c r="E84">
-        <v>-0.06547351327049647</v>
+        <v>0.02361251883256356</v>
       </c>
       <c r="F84">
-        <v>0.1461341896709118</v>
+        <v>-0.0936384832560931</v>
       </c>
       <c r="G84">
-        <v>-0.05584945422201908</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.04338748311517156</v>
+      </c>
+      <c r="H84">
+        <v>-0.08320697684922033</v>
+      </c>
+      <c r="I84">
+        <v>0.07958322257022291</v>
+      </c>
+      <c r="J84">
+        <v>-0.1127656935525749</v>
+      </c>
+      <c r="K84">
+        <v>0.06714667729117722</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.01166131891209693</v>
+        <v>0.02820682385315429</v>
       </c>
       <c r="C85">
-        <v>0.122285641344452</v>
+        <v>-0.1168866923799725</v>
       </c>
       <c r="D85">
-        <v>-0.1003316603765739</v>
+        <v>0.08209084636429867</v>
       </c>
       <c r="E85">
-        <v>0.1130003764188199</v>
+        <v>-0.01435246130305918</v>
       </c>
       <c r="F85">
-        <v>-0.1306967063946796</v>
+        <v>0.1304786317592518</v>
       </c>
       <c r="G85">
-        <v>-0.1405178250537932</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2184939812023892</v>
+      </c>
+      <c r="H85">
+        <v>0.05197053282820324</v>
+      </c>
+      <c r="I85">
+        <v>0.07912667133037178</v>
+      </c>
+      <c r="J85">
+        <v>0.08081673845886407</v>
+      </c>
+      <c r="K85">
+        <v>0.04560683075251794</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01927336283713523</v>
+        <v>0.01556802968533537</v>
       </c>
       <c r="C86">
-        <v>0.07695674620397175</v>
+        <v>-0.08361446050872262</v>
       </c>
       <c r="D86">
-        <v>0.02002611978046626</v>
+        <v>0.03026868181601187</v>
       </c>
       <c r="E86">
-        <v>-0.01358176810910766</v>
+        <v>0.006754303793743628</v>
       </c>
       <c r="F86">
-        <v>0.06045626329674952</v>
+        <v>-0.08229023975344696</v>
       </c>
       <c r="G86">
-        <v>0.0587184844712669</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04919547439404176</v>
+      </c>
+      <c r="H86">
+        <v>-0.01560925457925482</v>
+      </c>
+      <c r="I86">
+        <v>-0.1318310102525437</v>
+      </c>
+      <c r="J86">
+        <v>0.1185064647163211</v>
+      </c>
+      <c r="K86">
+        <v>-0.1694626948617644</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02927467831618609</v>
+        <v>0.02489104994313051</v>
       </c>
       <c r="C87">
-        <v>0.1474821058597862</v>
+        <v>-0.1195415098296212</v>
       </c>
       <c r="D87">
-        <v>-0.03922182394793931</v>
+        <v>0.02339960664598862</v>
       </c>
       <c r="E87">
-        <v>-0.09762087137528687</v>
+        <v>0.001258979395436867</v>
       </c>
       <c r="F87">
-        <v>0.05807251722531914</v>
+        <v>-0.06289364346470459</v>
       </c>
       <c r="G87">
-        <v>-0.007803999689944838</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.0008558887477715015</v>
+      </c>
+      <c r="H87">
+        <v>-0.02929190295530198</v>
+      </c>
+      <c r="I87">
+        <v>0.1177592053219939</v>
+      </c>
+      <c r="J87">
+        <v>-0.05495058573391872</v>
+      </c>
+      <c r="K87">
+        <v>-0.05056521710975528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.006000910888757711</v>
+        <v>0.03799424095760121</v>
       </c>
       <c r="C88">
-        <v>0.03604654948711774</v>
+        <v>-0.06304127003824397</v>
       </c>
       <c r="D88">
-        <v>-0.04613483182304226</v>
+        <v>0.03997115576657184</v>
       </c>
       <c r="E88">
-        <v>0.04986063962196626</v>
+        <v>0.009236032539764939</v>
       </c>
       <c r="F88">
-        <v>-0.01557135519398355</v>
+        <v>0.02041217840396163</v>
       </c>
       <c r="G88">
-        <v>0.002691748920748621</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02614318521559018</v>
+      </c>
+      <c r="H88">
+        <v>0.005909004206871952</v>
+      </c>
+      <c r="I88">
+        <v>0.01106943340968572</v>
+      </c>
+      <c r="J88">
+        <v>0.009528956393286573</v>
+      </c>
+      <c r="K88">
+        <v>0.06751334375895152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3959679490178635</v>
+        <v>0.3912273739862246</v>
       </c>
       <c r="C89">
-        <v>-0.08357800353716759</v>
+        <v>0.1146575317435805</v>
       </c>
       <c r="D89">
-        <v>-0.0891949786944355</v>
+        <v>-0.03396103621771258</v>
       </c>
       <c r="E89">
-        <v>-0.07531744610416728</v>
+        <v>0.04234429477390806</v>
       </c>
       <c r="F89">
-        <v>0.08971759206576782</v>
+        <v>-0.05768408762153628</v>
       </c>
       <c r="G89">
-        <v>-0.05178255243538093</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04482712122590814</v>
+      </c>
+      <c r="H89">
+        <v>-0.02575394862369128</v>
+      </c>
+      <c r="I89">
+        <v>0.1142357146766692</v>
+      </c>
+      <c r="J89">
+        <v>-0.7259354289225373</v>
+      </c>
+      <c r="K89">
+        <v>0.01052447170027647</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3079365908048257</v>
+        <v>0.316740041857141</v>
       </c>
       <c r="C90">
-        <v>-0.03290618722966223</v>
+        <v>0.07361285672127636</v>
       </c>
       <c r="D90">
-        <v>0.005348343340043212</v>
+        <v>-0.01947616377577463</v>
       </c>
       <c r="E90">
-        <v>-0.07454598139134809</v>
+        <v>-0.006910727216301495</v>
       </c>
       <c r="F90">
-        <v>-0.02985178589452448</v>
+        <v>-0.03884480303065937</v>
       </c>
       <c r="G90">
-        <v>0.03060410612785616</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.006471471744700593</v>
+      </c>
+      <c r="H90">
+        <v>-0.02167863079652786</v>
+      </c>
+      <c r="I90">
+        <v>-0.004653091002021008</v>
+      </c>
+      <c r="J90">
+        <v>0.08986985791050661</v>
+      </c>
+      <c r="K90">
+        <v>-0.005982827996881145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02493416586345312</v>
+        <v>0.05320349368346351</v>
       </c>
       <c r="C91">
-        <v>0.07631370113148615</v>
+        <v>-0.08437981460266437</v>
       </c>
       <c r="D91">
-        <v>-0.07458781813329621</v>
+        <v>0.05091334223311826</v>
       </c>
       <c r="E91">
-        <v>0.06032015647462208</v>
+        <v>-0.03947769433313637</v>
       </c>
       <c r="F91">
-        <v>-0.08396567230386576</v>
+        <v>0.05727999788844013</v>
       </c>
       <c r="G91">
-        <v>-0.06046011165004928</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.07986541641703661</v>
+      </c>
+      <c r="H91">
+        <v>0.03643525841796774</v>
+      </c>
+      <c r="I91">
+        <v>0.007557154866630681</v>
+      </c>
+      <c r="J91">
+        <v>-0.0007099842381389897</v>
+      </c>
+      <c r="K91">
+        <v>0.06077365277154658</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3825611444835274</v>
+        <v>0.3536873558176827</v>
       </c>
       <c r="C92">
-        <v>-0.07986732647245268</v>
+        <v>0.119682191789417</v>
       </c>
       <c r="D92">
-        <v>0.005477960450613328</v>
+        <v>-0.05339041446329163</v>
       </c>
       <c r="E92">
-        <v>0.03681623013753256</v>
+        <v>0.04028555887553735</v>
       </c>
       <c r="F92">
-        <v>0.0988731404234667</v>
+        <v>-0.04863416492467211</v>
       </c>
       <c r="G92">
-        <v>-0.03001500621298119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01915129993602748</v>
+      </c>
+      <c r="H92">
+        <v>-0.05878372403320511</v>
+      </c>
+      <c r="I92">
+        <v>-0.01347154704321856</v>
+      </c>
+      <c r="J92">
+        <v>0.1467860825812994</v>
+      </c>
+      <c r="K92">
+        <v>0.00957532485831372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3022382662697209</v>
+        <v>0.3112821206254798</v>
       </c>
       <c r="C93">
-        <v>-0.0825217933084835</v>
+        <v>0.1124091978730581</v>
       </c>
       <c r="D93">
-        <v>-0.01435591344783617</v>
+        <v>-0.00914029541992124</v>
       </c>
       <c r="E93">
-        <v>-0.06170435460519112</v>
+        <v>0.00341651710401973</v>
       </c>
       <c r="F93">
-        <v>0.03251908430843881</v>
+        <v>-0.03706608435641002</v>
       </c>
       <c r="G93">
-        <v>-0.01640698401802154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04209134765203489</v>
+      </c>
+      <c r="H93">
+        <v>-0.03051957774174984</v>
+      </c>
+      <c r="I93">
+        <v>-0.03836360593292151</v>
+      </c>
+      <c r="J93">
+        <v>0.09809222802054739</v>
+      </c>
+      <c r="K93">
+        <v>-0.01454090645125833</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.04874360204268913</v>
+        <v>0.07831679938103317</v>
       </c>
       <c r="C94">
-        <v>0.1921477468244479</v>
+        <v>-0.1620855889993195</v>
       </c>
       <c r="D94">
-        <v>-0.1581793528146848</v>
+        <v>0.1091111758880792</v>
       </c>
       <c r="E94">
-        <v>0.2232897880746431</v>
+        <v>-0.03084269585877622</v>
       </c>
       <c r="F94">
-        <v>-0.1894749033681024</v>
+        <v>0.1509446348141005</v>
       </c>
       <c r="G94">
-        <v>-0.544802010169984</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.5277788108191235</v>
+      </c>
+      <c r="H94">
+        <v>0.2254422784196395</v>
+      </c>
+      <c r="I94">
+        <v>-0.06820189998321338</v>
+      </c>
+      <c r="J94">
+        <v>-0.1240244408908838</v>
+      </c>
+      <c r="K94">
+        <v>0.2560284764573938</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02992996725036702</v>
+        <v>0.03921836184417216</v>
       </c>
       <c r="C95">
-        <v>0.08885572580549976</v>
+        <v>-0.1276623281208503</v>
       </c>
       <c r="D95">
-        <v>-0.04804709999881242</v>
+        <v>0.06192827097403903</v>
       </c>
       <c r="E95">
-        <v>0.036967208916883</v>
+        <v>0.02170463853251801</v>
       </c>
       <c r="F95">
-        <v>-0.08630631660692036</v>
+        <v>0.07836149707517433</v>
       </c>
       <c r="G95">
-        <v>0.1147449232755594</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04734725621593649</v>
+      </c>
+      <c r="H95">
+        <v>-0.0740623153269824</v>
+      </c>
+      <c r="I95">
+        <v>0.1049913313957394</v>
+      </c>
+      <c r="J95">
+        <v>-0.1563351762091992</v>
+      </c>
+      <c r="K95">
+        <v>0.2633699432952479</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0005626413443910954</v>
+        <v>0.01415743207778887</v>
       </c>
       <c r="C97">
-        <v>0.0007297240868534687</v>
+        <v>-0.01715912677134629</v>
       </c>
       <c r="D97">
-        <v>-0.001835743421058452</v>
+        <v>-0.006050992026434583</v>
       </c>
       <c r="E97">
-        <v>0.001145022549713381</v>
+        <v>0.03205535738025154</v>
       </c>
       <c r="F97">
-        <v>0.003511585211703499</v>
+        <v>-0.002182279811920392</v>
       </c>
       <c r="G97">
-        <v>0.002318259123271401</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.02226582588244754</v>
+      </c>
+      <c r="H97">
+        <v>-0.05254527395109589</v>
+      </c>
+      <c r="I97">
+        <v>-0.1290778961177877</v>
+      </c>
+      <c r="J97">
+        <v>-0.05524170735267924</v>
+      </c>
+      <c r="K97">
+        <v>0.03047035868396943</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08035455535225258</v>
+        <v>0.1306130411200767</v>
       </c>
       <c r="C98">
-        <v>0.1413117940037779</v>
+        <v>-0.1604169541467912</v>
       </c>
       <c r="D98">
-        <v>-0.1301953429347566</v>
+        <v>0.09390604806022002</v>
       </c>
       <c r="E98">
-        <v>0.08017681983612431</v>
+        <v>-0.03229675199497944</v>
       </c>
       <c r="F98">
-        <v>-0.08725692592762124</v>
+        <v>0.221091594551067</v>
       </c>
       <c r="G98">
-        <v>0.2642231404534349</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.325704973042212</v>
+      </c>
+      <c r="H98">
+        <v>0.3202715324122246</v>
+      </c>
+      <c r="I98">
+        <v>-0.1134934085122354</v>
+      </c>
+      <c r="J98">
+        <v>0.08413469977582379</v>
+      </c>
+      <c r="K98">
+        <v>-0.08056305666069198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01436764675977455</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04401159002085316</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01588054036412686</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.03902119697438008</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.06081973933279192</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.0643731998061389</v>
+      </c>
+      <c r="H99">
+        <v>-0.1962222232199932</v>
+      </c>
+      <c r="I99">
+        <v>-0.8860624923894013</v>
+      </c>
+      <c r="J99">
+        <v>-0.1974572887907841</v>
+      </c>
+      <c r="K99">
+        <v>0.01270699313854116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.008652262231906719</v>
+        <v>0.01475192779226769</v>
       </c>
       <c r="C101">
-        <v>0.0717524677335683</v>
+        <v>-0.08133713661938272</v>
       </c>
       <c r="D101">
-        <v>-0.04574906543299334</v>
+        <v>0.05166844224113147</v>
       </c>
       <c r="E101">
-        <v>-0.0283948260009038</v>
+        <v>-0.04621221003242605</v>
       </c>
       <c r="F101">
-        <v>-0.002485592148822211</v>
+        <v>-0.005991271460802847</v>
       </c>
       <c r="G101">
-        <v>0.1114231814367914</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1217941635879099</v>
+      </c>
+      <c r="H101">
+        <v>-0.2842606225037916</v>
+      </c>
+      <c r="I101">
+        <v>0.02773184427793187</v>
+      </c>
+      <c r="J101">
+        <v>0.0009036309192227019</v>
+      </c>
+      <c r="K101">
+        <v>0.1752651985856339</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.006880431275841832</v>
+        <v>0.002738679653030985</v>
       </c>
       <c r="C102">
-        <v>0.02301721251234964</v>
+        <v>-0.009147687152305546</v>
       </c>
       <c r="D102">
-        <v>-0.004401958219551998</v>
+        <v>-0.001160204659760257</v>
       </c>
       <c r="E102">
-        <v>0.02199560396183782</v>
+        <v>-0.004191750266740927</v>
       </c>
       <c r="F102">
-        <v>-0.028132757890163</v>
+        <v>0.007630013280438826</v>
       </c>
       <c r="G102">
-        <v>0.003603085016430499</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.002211604497765182</v>
+      </c>
+      <c r="H102">
+        <v>1.877854518758218e-05</v>
+      </c>
+      <c r="I102">
+        <v>-0.000523452452864144</v>
+      </c>
+      <c r="J102">
+        <v>-0.01402500128803859</v>
+      </c>
+      <c r="K102">
+        <v>-0.006698077954871547</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
